--- a/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_R-Habitat-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-27.34067319387421</v>
+        <v>-27.27495191704456</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.1417548098789</v>
+        <v>-19.94340828281618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-17.13779712045788</v>
+        <v>-16.60728401107368</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5615993139449776</v>
+        <v>-0.5611752352957485</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4952146202772233</v>
+        <v>-0.4898145875143783</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4279883891617933</v>
+        <v>-0.4182601778990205</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-17.47524700349683</v>
+        <v>-17.60616365255817</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-10.13165413207602</v>
+        <v>-10.2095062801549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.955947733366924</v>
+        <v>-6.376755744078542</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.4045157922261965</v>
+        <v>-0.4004136663669234</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2806250178538608</v>
+        <v>-0.2826745870615084</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1997725444156118</v>
+        <v>-0.1910148608598004</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-23.00028527365346</v>
+        <v>-22.84475041978217</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.0210686526751</v>
+        <v>-16.10284668840437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.26544520298555</v>
+        <v>-11.558363105118</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5209833404918454</v>
+        <v>-0.515779914747488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3818895223038454</v>
+        <v>-0.3845697519405333</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3206052788333855</v>
+        <v>-0.3233192823912224</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-14.81686387632556</v>
+        <v>-14.41950170228911</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.49331889189534</v>
+        <v>-7.653582305204913</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-3.450383378836106</v>
+        <v>-3.553836765858987</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3661472998849764</v>
+        <v>-0.3566950599987185</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1964632660105732</v>
+        <v>-0.2010121828947957</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1067553497091113</v>
+        <v>-0.110576157590092</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.67249385602184</v>
+        <v>-18.10520839421751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.00744332892535</v>
+        <v>-17.12915184946563</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-17.03234293136227</v>
+        <v>-17.0589564173753</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.4414085367955637</v>
+        <v>-0.4519288599126985</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.383996730637372</v>
+        <v>-0.3937351312712469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3857886176150819</v>
+        <v>-0.388503930630262</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.246479145210778</v>
+        <v>-7.930637052615315</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.795651220121431</v>
+        <v>-7.015535152857168</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.908548799210504</v>
+        <v>-7.184930141115396</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.2150358528881124</v>
+        <v>-0.2256361133227803</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1735816796837441</v>
+        <v>-0.1801392373014412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1750945006441685</v>
+        <v>-0.1864295768268937</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-17.4308569298692</v>
+        <v>-17.59079300435261</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.60174874026127</v>
+        <v>-14.6320905729524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.12211691485541</v>
+        <v>-9.746905642532994</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3859352192962056</v>
+        <v>-0.3912160776900424</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3589208096839717</v>
+        <v>-0.3656254430140513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3069897973831763</v>
+        <v>-0.2990821426548407</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-8.956291986600316</v>
+        <v>-9.243230645396563</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-5.970016236719977</v>
+        <v>-6.12566533685988</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-1.793382936559322</v>
+        <v>-1.934387767108977</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2161199533268646</v>
+        <v>-0.2254387983595438</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.160133585283443</v>
+        <v>-0.1707009362413783</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06044059671506063</v>
+        <v>-0.06480074978140501</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-19.02802469529953</v>
+        <v>-18.95810947138029</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.31758902929715</v>
+        <v>-14.33874096505117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.33305298488184</v>
+        <v>-11.22544850200932</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4374454969952593</v>
+        <v>-0.4376132489729002</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3540848749110742</v>
+        <v>-0.3540183939197776</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3115722298240422</v>
+        <v>-0.3090116528548988</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-14.47981802580964</v>
+        <v>-14.20459773446874</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-9.79964614406064</v>
+        <v>-9.752369165109251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.53579949167796</v>
+        <v>-6.707637074891282</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.3524743790524191</v>
+        <v>-0.3484231314832267</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2525886336661672</v>
+        <v>-0.2540189796406188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1927896401100834</v>
+        <v>-0.196032906065613</v>
       </c>
     </row>
     <row r="19">
